--- a/spec_cal/src/cal_star/refdata/Photometric/Landolt1992/Landolt1992.xlsx
+++ b/spec_cal/src/cal_star/refdata/Photometric/Landolt1992/Landolt1992.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="15120" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4297,7 +4297,7 @@
   <sheetPr/>
   <dimension ref="A1:P528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
